--- a/scoring/tests/AMS/AMSS93_test_1.xlsx
+++ b/scoring/tests/AMS/AMSS93_test_1.xlsx
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
